--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPM_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.7129339594053906</v>
+        <v>0.6429421623577039</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.6927551021447618</v>
+        <v>0.6597272638875294</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.6985621160566644</v>
+        <v>0.6607461638369755</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.6791407632310854</v>
+        <v>0.6561263639434662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.6949129175544786</v>
+        <v>0.6494160910421727</v>
       </c>
     </row>
   </sheetData>
